--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Trem2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H2">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J2">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>126.415527316933</v>
+        <v>0.8981156666666666</v>
       </c>
       <c r="N2">
-        <v>126.415527316933</v>
+        <v>2.694347</v>
       </c>
       <c r="O2">
-        <v>0.6318199673367253</v>
+        <v>0.004031692401101065</v>
       </c>
       <c r="P2">
-        <v>0.6318199673367253</v>
+        <v>0.004031692401101066</v>
       </c>
       <c r="Q2">
-        <v>6129.399545172681</v>
+        <v>44.451266752978</v>
       </c>
       <c r="R2">
-        <v>6129.399545172681</v>
+        <v>400.061400776802</v>
       </c>
       <c r="S2">
-        <v>0.4552770912760153</v>
+        <v>0.002874927636976582</v>
       </c>
       <c r="T2">
-        <v>0.4552770912760153</v>
+        <v>0.002874927636976583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4861288424311</v>
+        <v>49.493922</v>
       </c>
       <c r="H3">
-        <v>48.4861288424311</v>
+        <v>148.481766</v>
       </c>
       <c r="I3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J3">
-        <v>0.7205804102632573</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>73.666036818821</v>
+        <v>127.1208573333333</v>
       </c>
       <c r="N3">
-        <v>73.666036818821</v>
+        <v>381.362572</v>
       </c>
       <c r="O3">
-        <v>0.3681800326632748</v>
+        <v>0.5706527717464596</v>
       </c>
       <c r="P3">
-        <v>0.3681800326632748</v>
+        <v>0.5706527717464596</v>
       </c>
       <c r="Q3">
-        <v>3571.780952508628</v>
+        <v>6291.709797429127</v>
       </c>
       <c r="R3">
-        <v>3571.780952508628</v>
+        <v>56625.38817686215</v>
       </c>
       <c r="S3">
-        <v>0.265303318987242</v>
+        <v>0.406922270201749</v>
       </c>
       <c r="T3">
-        <v>0.265303318987242</v>
+        <v>0.406922270201749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.8189894391735</v>
+        <v>49.493922</v>
       </c>
       <c r="H4">
-        <v>12.8189894391735</v>
+        <v>148.481766</v>
       </c>
       <c r="I4">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J4">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.415527316933</v>
+        <v>94.64254933333332</v>
       </c>
       <c r="N4">
-        <v>126.415527316933</v>
+        <v>283.927648</v>
       </c>
       <c r="O4">
-        <v>0.6318199673367253</v>
+        <v>0.4248557965637307</v>
       </c>
       <c r="P4">
-        <v>0.6318199673367253</v>
+        <v>0.4248557965637307</v>
       </c>
       <c r="Q4">
-        <v>1620.519309623313</v>
+        <v>4684.230954585151</v>
       </c>
       <c r="R4">
-        <v>1620.519309623313</v>
+        <v>42158.07859126636</v>
       </c>
       <c r="S4">
-        <v>0.1203682860294161</v>
+        <v>0.3029570586628073</v>
       </c>
       <c r="T4">
-        <v>0.1203682860294161</v>
+        <v>0.3029570586628073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.8189894391735</v>
+        <v>49.493922</v>
       </c>
       <c r="H5">
-        <v>12.8189894391735</v>
+        <v>148.481766</v>
       </c>
       <c r="I5">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536235</v>
       </c>
       <c r="J5">
-        <v>0.1905104179230006</v>
+        <v>0.7130820883536234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>73.666036818821</v>
+        <v>0.1024133333333333</v>
       </c>
       <c r="N5">
-        <v>73.666036818821</v>
+        <v>0.30724</v>
       </c>
       <c r="O5">
-        <v>0.3681800326632748</v>
+        <v>0.0004597392887086524</v>
       </c>
       <c r="P5">
-        <v>0.3681800326632748</v>
+        <v>0.0004597392887086524</v>
       </c>
       <c r="Q5">
-        <v>944.3241480062326</v>
+        <v>5.06883753176</v>
       </c>
       <c r="R5">
-        <v>944.3241480062326</v>
+        <v>45.61953778584</v>
       </c>
       <c r="S5">
-        <v>0.07014213189358449</v>
+        <v>0.0003278318520905753</v>
       </c>
       <c r="T5">
-        <v>0.07014213189358449</v>
+        <v>0.0003278318520905753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.98248508901319</v>
+        <v>12.869858</v>
       </c>
       <c r="H6">
-        <v>5.98248508901319</v>
+        <v>38.609574</v>
       </c>
       <c r="I6">
-        <v>0.08890917181374212</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="J6">
-        <v>0.08890917181374212</v>
+        <v>0.185422064944754</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>126.415527316933</v>
+        <v>0.8981156666666666</v>
       </c>
       <c r="N6">
-        <v>126.415527316933</v>
+        <v>2.694347</v>
       </c>
       <c r="O6">
-        <v>0.6318199673367253</v>
+        <v>0.004031692401101065</v>
       </c>
       <c r="P6">
-        <v>0.6318199673367253</v>
+        <v>0.004031692401101066</v>
       </c>
       <c r="Q6">
-        <v>756.2790071932912</v>
+        <v>11.55862109757533</v>
       </c>
       <c r="R6">
-        <v>756.2790071932912</v>
+        <v>104.027589878178</v>
       </c>
       <c r="S6">
-        <v>0.05617459003129385</v>
+        <v>0.000747564730234233</v>
       </c>
       <c r="T6">
-        <v>0.05617459003129385</v>
+        <v>0.0007475647302342329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.869858</v>
+      </c>
+      <c r="H7">
+        <v>38.609574</v>
+      </c>
+      <c r="I7">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="J7">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>127.1208573333333</v>
+      </c>
+      <c r="N7">
+        <v>381.362572</v>
+      </c>
+      <c r="O7">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="P7">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="Q7">
+        <v>1636.027382718259</v>
+      </c>
+      <c r="R7">
+        <v>14724.24644446433</v>
+      </c>
+      <c r="S7">
+        <v>0.1058116153036759</v>
+      </c>
+      <c r="T7">
+        <v>0.1058116153036759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.869858</v>
+      </c>
+      <c r="H8">
+        <v>38.609574</v>
+      </c>
+      <c r="I8">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="J8">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>94.64254933333332</v>
+      </c>
+      <c r="N8">
+        <v>283.927648</v>
+      </c>
+      <c r="O8">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="P8">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="Q8">
+        <v>1218.036170677995</v>
+      </c>
+      <c r="R8">
+        <v>10962.32553610195</v>
+      </c>
+      <c r="S8">
+        <v>0.07877763910259528</v>
+      </c>
+      <c r="T8">
+        <v>0.07877763910259526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="H7">
-        <v>5.98248508901319</v>
-      </c>
-      <c r="I7">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="J7">
-        <v>0.08890917181374212</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>73.666036818821</v>
-      </c>
-      <c r="N7">
-        <v>73.666036818821</v>
-      </c>
-      <c r="O7">
-        <v>0.3681800326632748</v>
-      </c>
-      <c r="P7">
-        <v>0.3681800326632748</v>
-      </c>
-      <c r="Q7">
-        <v>440.7059668352933</v>
-      </c>
-      <c r="R7">
-        <v>440.7059668352933</v>
-      </c>
-      <c r="S7">
-        <v>0.03273458178244829</v>
-      </c>
-      <c r="T7">
-        <v>0.03273458178244829</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.869858</v>
+      </c>
+      <c r="H9">
+        <v>38.609574</v>
+      </c>
+      <c r="I9">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="J9">
+        <v>0.185422064944754</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1024133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.30724</v>
+      </c>
+      <c r="O9">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="P9">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="Q9">
+        <v>1.318045057306667</v>
+      </c>
+      <c r="R9">
+        <v>11.86240551576</v>
+      </c>
+      <c r="S9">
+        <v>8.524580824859078E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.524580824859075E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09074</v>
+      </c>
+      <c r="H10">
+        <v>0.27222</v>
+      </c>
+      <c r="I10">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J10">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.8981156666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.694347</v>
+      </c>
+      <c r="O10">
+        <v>0.004031692401101065</v>
+      </c>
+      <c r="P10">
+        <v>0.004031692401101066</v>
+      </c>
+      <c r="Q10">
+        <v>0.08149501559333333</v>
+      </c>
+      <c r="R10">
+        <v>0.73345514034</v>
+      </c>
+      <c r="S10">
+        <v>5.270767060635347E-06</v>
+      </c>
+      <c r="T10">
+        <v>5.270767060635347E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09074</v>
+      </c>
+      <c r="H11">
+        <v>0.27222</v>
+      </c>
+      <c r="I11">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J11">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>127.1208573333333</v>
+      </c>
+      <c r="N11">
+        <v>381.362572</v>
+      </c>
+      <c r="O11">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="P11">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="Q11">
+        <v>11.53494659442667</v>
+      </c>
+      <c r="R11">
+        <v>103.81451934984</v>
+      </c>
+      <c r="S11">
+        <v>0.0007460335593955701</v>
+      </c>
+      <c r="T11">
+        <v>0.0007460335593955699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09074</v>
+      </c>
+      <c r="H12">
+        <v>0.27222</v>
+      </c>
+      <c r="I12">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J12">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>94.64254933333332</v>
+      </c>
+      <c r="N12">
+        <v>283.927648</v>
+      </c>
+      <c r="O12">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="P12">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="Q12">
+        <v>8.587864926506665</v>
+      </c>
+      <c r="R12">
+        <v>77.29078433856</v>
+      </c>
+      <c r="S12">
+        <v>0.0005554282706281215</v>
+      </c>
+      <c r="T12">
+        <v>0.0005554282706281214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09074</v>
+      </c>
+      <c r="H13">
+        <v>0.27222</v>
+      </c>
+      <c r="I13">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="J13">
+        <v>0.001307333629717358</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1024133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.30724</v>
+      </c>
+      <c r="O13">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="P13">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="Q13">
+        <v>0.009292985866666667</v>
+      </c>
+      <c r="R13">
+        <v>0.08363687280000001</v>
+      </c>
+      <c r="S13">
+        <v>6.010326330311591E-07</v>
+      </c>
+      <c r="T13">
+        <v>6.010326330311589E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.195726</v>
+      </c>
+      <c r="I14">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J14">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.8981156666666666</v>
+      </c>
+      <c r="N14">
+        <v>2.694347</v>
+      </c>
+      <c r="O14">
+        <v>0.004031692401101065</v>
+      </c>
+      <c r="P14">
+        <v>0.004031692401101066</v>
+      </c>
+      <c r="Q14">
+        <v>0.3579667512135555</v>
+      </c>
+      <c r="R14">
+        <v>3.221700760922</v>
+      </c>
+      <c r="S14">
+        <v>2.315183753708494E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.315183753708493E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.195726</v>
+      </c>
+      <c r="I15">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J15">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>127.1208573333333</v>
+      </c>
+      <c r="N15">
+        <v>381.362572</v>
+      </c>
+      <c r="O15">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="P15">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="Q15">
+        <v>50.66723808525244</v>
+      </c>
+      <c r="R15">
+        <v>456.005142767272</v>
+      </c>
+      <c r="S15">
+        <v>0.003276951450451206</v>
+      </c>
+      <c r="T15">
+        <v>0.003276951450451206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.195726</v>
+      </c>
+      <c r="I16">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J16">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>94.64254933333332</v>
+      </c>
+      <c r="N16">
+        <v>283.927648</v>
+      </c>
+      <c r="O16">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="P16">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="Q16">
+        <v>37.72218564804977</v>
+      </c>
+      <c r="R16">
+        <v>339.499670832448</v>
+      </c>
+      <c r="S16">
+        <v>0.002439717964606132</v>
+      </c>
+      <c r="T16">
+        <v>0.002439717964606132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3985753333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.195726</v>
+      </c>
+      <c r="I17">
+        <v>0.005742461287662251</v>
+      </c>
+      <c r="J17">
+        <v>0.005742461287662249</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1024133333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.30724</v>
+      </c>
+      <c r="O17">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="P17">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="Q17">
+        <v>0.04081942847111111</v>
+      </c>
+      <c r="R17">
+        <v>0.36737485624</v>
+      </c>
+      <c r="S17">
+        <v>2.640035067826816E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.640035067826815E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.555354</v>
+      </c>
+      <c r="H18">
+        <v>19.666062</v>
+      </c>
+      <c r="I18">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J18">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.8981156666666666</v>
+      </c>
+      <c r="N18">
+        <v>2.694347</v>
+      </c>
+      <c r="O18">
+        <v>0.004031692401101065</v>
+      </c>
+      <c r="P18">
+        <v>0.004031692401101066</v>
+      </c>
+      <c r="Q18">
+        <v>5.887466127946</v>
+      </c>
+      <c r="R18">
+        <v>52.987195151514</v>
+      </c>
+      <c r="S18">
+        <v>0.0003807774292925299</v>
+      </c>
+      <c r="T18">
+        <v>0.0003807774292925299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.555354</v>
+      </c>
+      <c r="H19">
+        <v>19.666062</v>
+      </c>
+      <c r="I19">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J19">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>127.1208573333333</v>
+      </c>
+      <c r="N19">
+        <v>381.362572</v>
+      </c>
+      <c r="O19">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="P19">
+        <v>0.5706527717464596</v>
+      </c>
+      <c r="Q19">
+        <v>833.322220603496</v>
+      </c>
+      <c r="R19">
+        <v>7499.899985431464</v>
+      </c>
+      <c r="S19">
+        <v>0.05389590123118788</v>
+      </c>
+      <c r="T19">
+        <v>0.05389590123118786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.555354</v>
+      </c>
+      <c r="H20">
+        <v>19.666062</v>
+      </c>
+      <c r="I20">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J20">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.64254933333332</v>
+      </c>
+      <c r="N20">
+        <v>283.927648</v>
+      </c>
+      <c r="O20">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="P20">
+        <v>0.4248557965637307</v>
+      </c>
+      <c r="Q20">
+        <v>620.4154143424639</v>
+      </c>
+      <c r="R20">
+        <v>5583.738729082175</v>
+      </c>
+      <c r="S20">
+        <v>0.04012595256309388</v>
+      </c>
+      <c r="T20">
+        <v>0.04012595256309388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.555354</v>
+      </c>
+      <c r="H21">
+        <v>19.666062</v>
+      </c>
+      <c r="I21">
+        <v>0.09444605178424292</v>
+      </c>
+      <c r="J21">
+        <v>0.0944460517842429</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1024133333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.30724</v>
+      </c>
+      <c r="O21">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="P21">
+        <v>0.0004597392887086524</v>
+      </c>
+      <c r="Q21">
+        <v>0.6713556543200001</v>
+      </c>
+      <c r="R21">
+        <v>6.04220088888</v>
+      </c>
+      <c r="S21">
+        <v>4.342056066862839E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.342056066862838E-05</v>
       </c>
     </row>
   </sheetData>
